--- a/biology/Médecine/Samuel_S._Kottek/Samuel_S._Kottek.xlsx
+++ b/biology/Médecine/Samuel_S._Kottek/Samuel_S._Kottek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samuel S. Kottek[1] (en hébreu : קוטק שמואל), né en 1931[2] à Strasbourg, est un médecin pédiatre français du XXe siècle, professeur d'histoire de la médecine à l'université hébraïque de Jérusalem, en Israël.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel S. Kottek (en hébreu : קוטק שמואל), né en 1931 à Strasbourg, est un médecin pédiatre français du XXe siècle, professeur d'histoire de la médecine à l'université hébraïque de Jérusalem, en Israël.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Kottek est né à Strasbourg (Bas-Rhin). Il reçoit son diplôme de docteur en médecine de l'université de Strasbourg en 1959.
 Il pratique la pédiatrie à Strasbourg puis à Jérusalem, Israël. Il devint maître de conférences en 1976, puis professeur associé, titulaire de la chaire Harry Friedenwald en histoire de la médecine à l'université hébraïque de Jérusalem en 1984 et finalement émérite en 2000. Disciple du professeur Joshua Leibowitz, premier titulaire de la Chaire.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Actes de 3 Congrès internationaux sur la Medecine de la Bible et du Talmud: Numeros speciaux de Korot, 1982, 1985 and 1988.
 1988 :
